--- a/templates/TransactionReport.xlsx
+++ b/templates/TransactionReport.xlsx
@@ -422,10 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,6 +496,6 @@
   </sheetData>
   <autoFilter ref="A1:N1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/TransactionReport.xlsx
+++ b/templates/TransactionReport.xlsx
@@ -75,6 +75,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -142,6 +146,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,7 +440,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,9 +455,9 @@
     <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -480,13 +492,13 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">

--- a/templates/TransactionReport.xlsx
+++ b/templates/TransactionReport.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Transactopm Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Transactopm Report'!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Transactopm Report'!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Item Code</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Received by</t>
+  </si>
+  <si>
+    <t>Remaining Days</t>
   </si>
 </sst>
 </file>
@@ -437,76 +440,80 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:O1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/templates/TransactionReport.xlsx
+++ b/templates/TransactionReport.xlsx
@@ -38,9 +38,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Item Name</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Remaining Days</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -442,9 +442,7 @@
   </sheetPr>
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -467,7 +465,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -479,37 +477,37 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/templates/TransactionReport.xlsx
+++ b/templates/TransactionReport.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Transactopm Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Transactopm Report'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Transactopm Report'!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Item Code</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accession No</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -157,6 +160,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +446,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,20 +456,21 @@
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -477,41 +484,44 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1"/>
+  <autoFilter ref="A1:P1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/templates/TransactionReport.xlsx
+++ b/templates/TransactionReport.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Transactopm Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Transactopm Report'!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Transactopm Report'!$A$8:$P$8</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Item Code</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Accession No</t>
+  </si>
+  <si>
+    <t>Republic of the Philippines</t>
+  </si>
+  <si>
+    <t>OVIDIO S. DELA ROSA ELEMENTARY SCHOOL</t>
+  </si>
+  <si>
+    <t>Cavite City</t>
+  </si>
+  <si>
+    <t>Boulevard Cavite City</t>
+  </si>
+  <si>
+    <t>Transaction Report</t>
   </si>
 </sst>
 </file>
@@ -85,7 +100,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +112,35 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,28 +183,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -178,6 +259,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="600455_423943010971348_2121060906_n"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5372100" y="0"/>
+          <a:ext cx="1057275" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,9 +587,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:N6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -456,73 +599,186 @@
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="10"/>
+      <c r="E1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="12"/>
+    </row>
+    <row r="2" spans="1:16" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="15"/>
+      <c r="E2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="12"/>
+    </row>
+    <row r="3" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="10"/>
+      <c r="E3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="12"/>
+    </row>
+    <row r="5" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="1:16" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1"/>
+  <autoFilter ref="A8:P8"/>
+  <mergeCells count="5">
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E4:N4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>